--- a/2_20200423/b/2Bresult.xlsx
+++ b/2_20200423/b/2Bresult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkje/Documents/Activities/学校/応用プログラミングB/2_20200423/b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D16B8-595D-3A47-8C04-6DCD7EE815DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08553E67-5E9C-CC41-9790-DB1E86DEFAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="-21140" windowWidth="38400" windowHeight="20160" activeTab="1" xr2:uid="{CCF39DDB-AF62-0A47-AF44-E69629BF12D3}"/>
   </bookViews>
@@ -47,6 +47,34 @@
     </textPr>
   </connection>
 </connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助線</t>
+    <rPh sb="0" eb="3">
+      <t>ホゼィオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,6 +805,327 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>実行結果!$E$7:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>実行結果!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8C89-0F4A-B0C8-5436EEE66558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>実行結果!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>実行結果!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8C89-0F4A-B0C8-5436EEE66558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>実行結果!$G$7:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>実行結果!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8C89-0F4A-B0C8-5436EEE66558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -812,7 +1161,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -822,7 +1171,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US">
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -832,7 +1181,7 @@
                   <a:t>中心からの距離</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -841,7 +1190,7 @@
                   </a:rPr>
                   <a:t>[m]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -864,7 +1213,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -896,7 +1245,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -916,6 +1265,7 @@
         <c:axId val="516344176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -935,7 +1285,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -948,7 +1298,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US">
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -958,7 +1308,7 @@
                   <a:t>電位</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP">
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -967,7 +1317,7 @@
                   </a:rPr>
                   <a:t>[V]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US">
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -990,7 +1340,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1025,7 +1375,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1043,10 +1393,8 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1645,7 +1993,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{02F0F8AB-CEBD-B745-99E0-981163D8981C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1656,7 +2004,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310637" cy="6074968"/>
+    <xdr:ext cx="9316013" cy="6076709"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -1986,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992EDE40-BEC2-B847-B699-E5D3F0BBAAB2}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1998,7 +2346,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2006,7 +2354,7 @@
         <v>44.488381350600001</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -2014,7 +2362,7 @@
         <v>44.488381350600001</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -2022,7 +2370,7 @@
         <v>44.488381350600001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.03</v>
       </c>
@@ -2030,111 +2378,258 @@
         <v>44.488381350600001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.04</v>
       </c>
       <c r="B5">
         <v>44.488381350600001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.05</v>
       </c>
       <c r="B6">
         <v>44.488381350600001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.06</v>
       </c>
       <c r="B7">
         <v>44.488381350600001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
         <v>44.488381350600001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.08</v>
       </c>
       <c r="B9">
         <v>44.488381350600001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.4</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.09</v>
       </c>
       <c r="B10">
         <v>44.488381350600001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.1</v>
       </c>
       <c r="B11">
         <v>44.488381350600001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.11</v>
       </c>
       <c r="B12">
         <v>40.403130537899997</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.4</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.12</v>
       </c>
       <c r="B13">
         <v>36.998754860600002</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.13</v>
       </c>
       <c r="B14">
         <v>34.118129287499997</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>0.4</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.14000000000000001</v>
       </c>
       <c r="B15">
         <v>31.649021653399998</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.15</v>
       </c>
       <c r="B16">
         <v>29.509128370599999</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
+        <v>0.4</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>0.16</v>
       </c>
       <c r="B17">
         <v>27.636721748100001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>0.17</v>
       </c>
@@ -2142,7 +2637,7 @@
         <v>25.9845982577</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>0.18</v>
       </c>
@@ -2150,7 +2645,7 @@
         <v>24.516044043899999</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>0.19</v>
       </c>
@@ -2158,7 +2653,7 @@
         <v>23.202074484299999</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -2166,7 +2661,7 @@
         <v>22.0195018806</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>0.21</v>
       </c>
@@ -2174,7 +2669,7 @@
         <v>20.949555239199999</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>0.22</v>
       </c>
@@ -2182,7 +2677,7 @@
         <v>19.976876474200001</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>0.23</v>
       </c>
@@ -2190,7 +2685,7 @@
         <v>19.0887784715</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>0.24</v>
       </c>
@@ -2198,7 +2693,7 @@
         <v>18.2746886356</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -2206,7 +2701,7 @@
         <v>17.525725986600001</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>0.26</v>
       </c>
@@ -2214,7 +2709,7 @@
         <v>16.834375849099999</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>0.27</v>
       </c>
@@ -2222,7 +2717,7 @@
         <v>16.194236832800001</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>0.28000000000000003</v>
       </c>
@@ -2230,7 +2725,7 @@
         <v>15.599822032000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>0.28999999999999998</v>
       </c>
@@ -2238,7 +2733,7 @@
         <v>15.0464013554</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>0.3</v>
       </c>
@@ -2246,7 +2741,7 @@
         <v>14.529875390600001</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>0.31</v>
       </c>
